--- a/data/pred_tot.xlsx
+++ b/data/pred_tot.xlsx
@@ -432,10 +432,10 @@
         <v>436.962499147127</v>
       </c>
       <c r="D3">
-        <v>393.6741443583344</v>
+        <v>307.917719484799</v>
       </c>
       <c r="E3">
-        <v>618.0969993794084</v>
+        <v>566.007278809455</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -449,10 +449,10 @@
         <v>458.4775448437152</v>
       </c>
       <c r="D4">
-        <v>393.6741443583344</v>
+        <v>327.4682829718734</v>
       </c>
       <c r="E4">
-        <v>618.0969993794084</v>
+        <v>589.486806715557</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -466,10 +466,10 @@
         <v>406.590616378645</v>
       </c>
       <c r="D5">
-        <v>393.6741443583344</v>
+        <v>268.1272318332671</v>
       </c>
       <c r="E5">
-        <v>618.0969993794084</v>
+        <v>545.0540009240228</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -483,10 +483,10 @@
         <v>578.0983550231691</v>
       </c>
       <c r="D6">
-        <v>393.6741443583344</v>
+        <v>437.1469796161267</v>
       </c>
       <c r="E6">
-        <v>618.0969993794084</v>
+        <v>719.0497304302116</v>
       </c>
     </row>
   </sheetData>
